--- a/xtt_demo/ZXXT_DEMO_030_A_R.XLSX
+++ b/xtt_demo/ZXXT_DEMO_030_A_R.XLSX
@@ -13,12 +13,12 @@
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId556" sheetId="556" name="First sheet"/>
-    <sheet r:id="rId557" sheetId="557" name="{R-TITLE}" state="veryHidden"/>
-    <sheet r:id="rId558" sheetId="558" name="Title 1"/>
-    <sheet r:id="rId559" sheetId="559" name="Title 2"/>
-    <sheet r:id="rId560" sheetId="560" name="Title 3"/>
-    <sheet r:id="rId561" sheetId="561" name="Last sheet"/>
+    <sheet r:id="rId1" sheetId="1" name="First sheet"/>
+    <sheet r:id="rId2" sheetId="2" name="{R-TITLE}" state="veryHidden"/>
+    <sheet r:id="rId556" sheetId="556" name="Title 1"/>
+    <sheet r:id="rId557" sheetId="557" name="Title 2"/>
+    <sheet r:id="rId558" sheetId="558" name="Title 3"/>
+    <sheet r:id="rId3" sheetId="3" name="Last sheet"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1066,8 +1066,20 @@
 </table>
 </file>
 
+<file path=xl/tables/table5561.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5561" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1_556" displayName="Table1_556" ref="B3:D19" totalsRowCount="1" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6">
+  <autoFilter ref="B3:D4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Caption - Group" totalsRowLabel="Total" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="SUM1" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="SUM2" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table5571.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5571" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1_557" displayName="Table1_557" ref="B3:D5" totalsRowCount="1" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5571" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1_557" displayName="Table1_557" ref="B3:D19" totalsRowCount="1" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6">
   <autoFilter ref="B3:D4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Caption - Group" totalsRowLabel="Total" dataDxfId="5" totalsRowDxfId="4"/>
@@ -1080,30 +1092,6 @@
 
 <file path=xl/tables/table5581.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5581" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1_558" displayName="Table1_558" ref="B3:D19" totalsRowCount="1" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6">
-  <autoFilter ref="B3:D4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Caption - Group" totalsRowLabel="Total" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="SUM1" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="SUM2" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5591.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5591" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1_559" displayName="Table1_559" ref="B3:D19" totalsRowCount="1" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6">
-  <autoFilter ref="B3:D4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Caption - Group" totalsRowLabel="Total" dataDxfId="5" totalsRowDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="SUM1" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="SUM2" totalsRowFunction="sum" dataDxfId="1" totalsRowDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5601.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5601" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1_560" displayName="Table1_560" ref="B3:D19" totalsRowCount="1" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6">
   <autoFilter ref="B3:D4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Caption - Group" totalsRowLabel="Total" dataDxfId="5" totalsRowDxfId="4"/>
@@ -1385,12 +1373,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="31.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" customHeight="1" ht="15">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1408,81 +1396,78 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="49.28515625" customWidth="1"/>
-    <col min="3" max="4" width="32.5703125" customWidth="1"/>
+    <col customWidth="1" max="2" min="2" width="49.28515625"/>
+    <col customWidth="1" max="3" min="3" width="32.5703125"/>
+    <col customWidth="1" max="4" min="4" width="32.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" customHeight="1" ht="15">
       <c r="B1" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G1" s="11"/>
       <c r="H1" s="11" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="I1" s="11"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" customHeight="1" ht="15.75">
       <c r="B3" s="6" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" ht="15.75">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11" t="e">
         <f>Table1[[#This Row],[SUM1]]*Table1[[#This Row],[SUM2]]+C$4-D$4</f>
-        <v>#VALUE!</v>
       </c>
       <c r="I4" s="11"/>
     </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" customHeight="1" ht="15">
       <c r="B5" s="8" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C5" s="9">
         <f>SUBTOTAL(109,Table1[SUM1])</f>
-        <v>0</v>
       </c>
       <c r="D5" s="10">
         <f>SUBTOTAL(109,Table1[SUM2])</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      </c>
+    </row>
+    <row r="6" customHeight="1" ht="15">
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="F4:G4"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
+    <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1504,12 +1489,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" width="34.28515625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" customHeight="1" ht="15">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1518,122 +1503,6 @@
 </file>
 
 <file path=xl/worksheets/sheet556.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" width="31.28515625"/>
-  </cols>
-  <sheetData>
-    <row r="1" customHeight="1" ht="15">
-      <c r="A1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet557.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col customWidth="1" max="2" min="2" width="49.28515625"/>
-    <col customWidth="1" max="3" min="3" width="32.5703125"/>
-    <col customWidth="1" max="4" min="4" width="32.5703125"/>
-  </cols>
-  <sheetData>
-    <row r="1" customHeight="1" ht="15">
-      <c r="B1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="11"/>
-    </row>
-    <row r="3" customHeight="1" ht="15.75">
-      <c r="B3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" ht="15.75">
-      <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11" t="e">
-        <f>Table1_557[[#This Row],[SUM1]]*Table1_557[[#This Row],[SUM2]]+C$4-D$4</f>
-      </c>
-      <c r="I4" s="11"/>
-    </row>
-    <row r="5" customHeight="1" ht="15">
-      <c r="B5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="9">
-        <f>SUBTOTAL(109,Table1_557[SUM1])</f>
-      </c>
-      <c r="D5" s="10">
-        <f>SUBTOTAL(109,Table1_557[SUM2])</f>
-      </c>
-    </row>
-    <row r="6" customHeight="1" ht="15">
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <drawing r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet558.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
@@ -1690,7 +1559,7 @@
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11" t="e">
-        <f>Table1_558[[#This Row],[SUM1]]*Table1_558[[#This Row],[SUM2]]+C$4-D$4</f>
+        <f>Table1_556[[#This Row],[SUM1]]*Table1_556[[#This Row],[SUM2]]+C$4-D$4</f>
       </c>
       <c r="I4" s="11"/>
     </row>
@@ -1712,7 +1581,7 @@
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11" t="e">
-        <f>Table1_558[[#This Row],[SUM1]]*Table1_558[[#This Row],[SUM2]]+C$5-D$5</f>
+        <f>Table1_556[[#This Row],[SUM1]]*Table1_556[[#This Row],[SUM2]]+C$5-D$5</f>
       </c>
       <c r="I5" s="11"/>
     </row>
@@ -1734,7 +1603,7 @@
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11" t="e">
-        <f>Table1_558[[#This Row],[SUM1]]*Table1_558[[#This Row],[SUM2]]+C$6-D$6</f>
+        <f>Table1_556[[#This Row],[SUM1]]*Table1_556[[#This Row],[SUM2]]+C$6-D$6</f>
       </c>
       <c r="I6" s="11"/>
     </row>
@@ -1756,7 +1625,7 @@
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11" t="e">
-        <f>Table1_558[[#This Row],[SUM1]]*Table1_558[[#This Row],[SUM2]]+C$7-D$7</f>
+        <f>Table1_556[[#This Row],[SUM1]]*Table1_556[[#This Row],[SUM2]]+C$7-D$7</f>
       </c>
       <c r="I7" s="11"/>
     </row>
@@ -1778,7 +1647,7 @@
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11" t="e">
-        <f>Table1_558[[#This Row],[SUM1]]*Table1_558[[#This Row],[SUM2]]+C$8-D$8</f>
+        <f>Table1_556[[#This Row],[SUM1]]*Table1_556[[#This Row],[SUM2]]+C$8-D$8</f>
       </c>
       <c r="I8" s="11"/>
     </row>
@@ -1800,7 +1669,7 @@
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11" t="e">
-        <f>Table1_558[[#This Row],[SUM1]]*Table1_558[[#This Row],[SUM2]]+C$9-D$9</f>
+        <f>Table1_556[[#This Row],[SUM1]]*Table1_556[[#This Row],[SUM2]]+C$9-D$9</f>
       </c>
       <c r="I9" s="11"/>
     </row>
@@ -1822,7 +1691,7 @@
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11" t="e">
-        <f>Table1_558[[#This Row],[SUM1]]*Table1_558[[#This Row],[SUM2]]+C$10-D$10</f>
+        <f>Table1_556[[#This Row],[SUM1]]*Table1_556[[#This Row],[SUM2]]+C$10-D$10</f>
       </c>
       <c r="I10" s="11"/>
     </row>
@@ -1844,7 +1713,7 @@
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11" t="e">
-        <f>Table1_558[[#This Row],[SUM1]]*Table1_558[[#This Row],[SUM2]]+C$11-D$11</f>
+        <f>Table1_556[[#This Row],[SUM1]]*Table1_556[[#This Row],[SUM2]]+C$11-D$11</f>
       </c>
       <c r="I11" s="11"/>
     </row>
@@ -1866,7 +1735,7 @@
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="11" t="e">
-        <f>Table1_558[[#This Row],[SUM1]]*Table1_558[[#This Row],[SUM2]]+C$12-D$12</f>
+        <f>Table1_556[[#This Row],[SUM1]]*Table1_556[[#This Row],[SUM2]]+C$12-D$12</f>
       </c>
       <c r="I12" s="11"/>
     </row>
@@ -1888,7 +1757,7 @@
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11" t="e">
-        <f>Table1_558[[#This Row],[SUM1]]*Table1_558[[#This Row],[SUM2]]+C$13-D$13</f>
+        <f>Table1_556[[#This Row],[SUM1]]*Table1_556[[#This Row],[SUM2]]+C$13-D$13</f>
       </c>
       <c r="I13" s="11"/>
     </row>
@@ -1910,7 +1779,7 @@
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="11" t="e">
-        <f>Table1_558[[#This Row],[SUM1]]*Table1_558[[#This Row],[SUM2]]+C$14-D$14</f>
+        <f>Table1_556[[#This Row],[SUM1]]*Table1_556[[#This Row],[SUM2]]+C$14-D$14</f>
       </c>
       <c r="I14" s="11"/>
     </row>
@@ -1932,7 +1801,7 @@
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="11" t="e">
-        <f>Table1_558[[#This Row],[SUM1]]*Table1_558[[#This Row],[SUM2]]+C$15-D$15</f>
+        <f>Table1_556[[#This Row],[SUM1]]*Table1_556[[#This Row],[SUM2]]+C$15-D$15</f>
       </c>
       <c r="I15" s="11"/>
     </row>
@@ -1954,7 +1823,7 @@
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="11" t="e">
-        <f>Table1_558[[#This Row],[SUM1]]*Table1_558[[#This Row],[SUM2]]+C$16-D$16</f>
+        <f>Table1_556[[#This Row],[SUM1]]*Table1_556[[#This Row],[SUM2]]+C$16-D$16</f>
       </c>
       <c r="I16" s="11"/>
     </row>
@@ -1976,7 +1845,7 @@
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="11" t="e">
-        <f>Table1_558[[#This Row],[SUM1]]*Table1_558[[#This Row],[SUM2]]+C$17-D$17</f>
+        <f>Table1_556[[#This Row],[SUM1]]*Table1_556[[#This Row],[SUM2]]+C$17-D$17</f>
       </c>
       <c r="I17" s="11"/>
     </row>
@@ -1998,7 +1867,7 @@
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="11" t="e">
-        <f>Table1_558[[#This Row],[SUM1]]*Table1_558[[#This Row],[SUM2]]+C$18-D$18</f>
+        <f>Table1_556[[#This Row],[SUM1]]*Table1_556[[#This Row],[SUM2]]+C$18-D$18</f>
       </c>
       <c r="I18" s="11"/>
     </row>
@@ -2007,10 +1876,10 @@
         <v>26</v>
       </c>
       <c r="C19" s="9">
-        <f>SUBTOTAL(109,Table1_558[SUM1])</f>
+        <f>SUBTOTAL(109,Table1_556[SUM1])</f>
       </c>
       <c r="D19" s="10">
-        <f>SUBTOTAL(109,Table1_558[SUM2])</f>
+        <f>SUBTOTAL(109,Table1_556[SUM2])</f>
       </c>
     </row>
     <row r="20" customHeight="1" ht="15">
@@ -2062,7 +1931,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet559.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet557.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
@@ -2119,7 +1988,7 @@
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11" t="e">
-        <f>Table1_559[[#This Row],[SUM1]]*Table1_559[[#This Row],[SUM2]]+C$4-D$4</f>
+        <f>Table1_557[[#This Row],[SUM1]]*Table1_557[[#This Row],[SUM2]]+C$4-D$4</f>
       </c>
       <c r="I4" s="11"/>
     </row>
@@ -2141,7 +2010,7 @@
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11" t="e">
-        <f>Table1_559[[#This Row],[SUM1]]*Table1_559[[#This Row],[SUM2]]+C$5-D$5</f>
+        <f>Table1_557[[#This Row],[SUM1]]*Table1_557[[#This Row],[SUM2]]+C$5-D$5</f>
       </c>
       <c r="I5" s="11"/>
     </row>
@@ -2163,7 +2032,7 @@
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11" t="e">
-        <f>Table1_559[[#This Row],[SUM1]]*Table1_559[[#This Row],[SUM2]]+C$6-D$6</f>
+        <f>Table1_557[[#This Row],[SUM1]]*Table1_557[[#This Row],[SUM2]]+C$6-D$6</f>
       </c>
       <c r="I6" s="11"/>
     </row>
@@ -2185,7 +2054,7 @@
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11" t="e">
-        <f>Table1_559[[#This Row],[SUM1]]*Table1_559[[#This Row],[SUM2]]+C$7-D$7</f>
+        <f>Table1_557[[#This Row],[SUM1]]*Table1_557[[#This Row],[SUM2]]+C$7-D$7</f>
       </c>
       <c r="I7" s="11"/>
     </row>
@@ -2207,7 +2076,7 @@
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11" t="e">
-        <f>Table1_559[[#This Row],[SUM1]]*Table1_559[[#This Row],[SUM2]]+C$8-D$8</f>
+        <f>Table1_557[[#This Row],[SUM1]]*Table1_557[[#This Row],[SUM2]]+C$8-D$8</f>
       </c>
       <c r="I8" s="11"/>
     </row>
@@ -2229,7 +2098,7 @@
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11" t="e">
-        <f>Table1_559[[#This Row],[SUM1]]*Table1_559[[#This Row],[SUM2]]+C$9-D$9</f>
+        <f>Table1_557[[#This Row],[SUM1]]*Table1_557[[#This Row],[SUM2]]+C$9-D$9</f>
       </c>
       <c r="I9" s="11"/>
     </row>
@@ -2251,7 +2120,7 @@
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11" t="e">
-        <f>Table1_559[[#This Row],[SUM1]]*Table1_559[[#This Row],[SUM2]]+C$10-D$10</f>
+        <f>Table1_557[[#This Row],[SUM1]]*Table1_557[[#This Row],[SUM2]]+C$10-D$10</f>
       </c>
       <c r="I10" s="11"/>
     </row>
@@ -2273,7 +2142,7 @@
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11" t="e">
-        <f>Table1_559[[#This Row],[SUM1]]*Table1_559[[#This Row],[SUM2]]+C$11-D$11</f>
+        <f>Table1_557[[#This Row],[SUM1]]*Table1_557[[#This Row],[SUM2]]+C$11-D$11</f>
       </c>
       <c r="I11" s="11"/>
     </row>
@@ -2295,7 +2164,7 @@
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="11" t="e">
-        <f>Table1_559[[#This Row],[SUM1]]*Table1_559[[#This Row],[SUM2]]+C$12-D$12</f>
+        <f>Table1_557[[#This Row],[SUM1]]*Table1_557[[#This Row],[SUM2]]+C$12-D$12</f>
       </c>
       <c r="I12" s="11"/>
     </row>
@@ -2317,7 +2186,7 @@
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11" t="e">
-        <f>Table1_559[[#This Row],[SUM1]]*Table1_559[[#This Row],[SUM2]]+C$13-D$13</f>
+        <f>Table1_557[[#This Row],[SUM1]]*Table1_557[[#This Row],[SUM2]]+C$13-D$13</f>
       </c>
       <c r="I13" s="11"/>
     </row>
@@ -2339,7 +2208,7 @@
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="11" t="e">
-        <f>Table1_559[[#This Row],[SUM1]]*Table1_559[[#This Row],[SUM2]]+C$14-D$14</f>
+        <f>Table1_557[[#This Row],[SUM1]]*Table1_557[[#This Row],[SUM2]]+C$14-D$14</f>
       </c>
       <c r="I14" s="11"/>
     </row>
@@ -2361,7 +2230,7 @@
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="11" t="e">
-        <f>Table1_559[[#This Row],[SUM1]]*Table1_559[[#This Row],[SUM2]]+C$15-D$15</f>
+        <f>Table1_557[[#This Row],[SUM1]]*Table1_557[[#This Row],[SUM2]]+C$15-D$15</f>
       </c>
       <c r="I15" s="11"/>
     </row>
@@ -2383,7 +2252,7 @@
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="11" t="e">
-        <f>Table1_559[[#This Row],[SUM1]]*Table1_559[[#This Row],[SUM2]]+C$16-D$16</f>
+        <f>Table1_557[[#This Row],[SUM1]]*Table1_557[[#This Row],[SUM2]]+C$16-D$16</f>
       </c>
       <c r="I16" s="11"/>
     </row>
@@ -2405,7 +2274,7 @@
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="11" t="e">
-        <f>Table1_559[[#This Row],[SUM1]]*Table1_559[[#This Row],[SUM2]]+C$17-D$17</f>
+        <f>Table1_557[[#This Row],[SUM1]]*Table1_557[[#This Row],[SUM2]]+C$17-D$17</f>
       </c>
       <c r="I17" s="11"/>
     </row>
@@ -2427,7 +2296,7 @@
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="11" t="e">
-        <f>Table1_559[[#This Row],[SUM1]]*Table1_559[[#This Row],[SUM2]]+C$18-D$18</f>
+        <f>Table1_557[[#This Row],[SUM1]]*Table1_557[[#This Row],[SUM2]]+C$18-D$18</f>
       </c>
       <c r="I18" s="11"/>
     </row>
@@ -2436,10 +2305,10 @@
         <v>26</v>
       </c>
       <c r="C19" s="9">
-        <f>SUBTOTAL(109,Table1_559[SUM1])</f>
+        <f>SUBTOTAL(109,Table1_557[SUM1])</f>
       </c>
       <c r="D19" s="10">
-        <f>SUBTOTAL(109,Table1_559[SUM2])</f>
+        <f>SUBTOTAL(109,Table1_557[SUM2])</f>
       </c>
     </row>
     <row r="20" customHeight="1" ht="15">
@@ -2491,7 +2360,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet560.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet558.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I6"/>
   <sheetViews>
@@ -2548,7 +2417,7 @@
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11" t="e">
-        <f>Table1_560[[#This Row],[SUM1]]*Table1_560[[#This Row],[SUM2]]+C$4-D$4</f>
+        <f>Table1_558[[#This Row],[SUM1]]*Table1_558[[#This Row],[SUM2]]+C$4-D$4</f>
       </c>
       <c r="I4" s="11"/>
     </row>
@@ -2570,7 +2439,7 @@
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11" t="e">
-        <f>Table1_560[[#This Row],[SUM1]]*Table1_560[[#This Row],[SUM2]]+C$5-D$5</f>
+        <f>Table1_558[[#This Row],[SUM1]]*Table1_558[[#This Row],[SUM2]]+C$5-D$5</f>
       </c>
       <c r="I5" s="11"/>
     </row>
@@ -2592,7 +2461,7 @@
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11" t="e">
-        <f>Table1_560[[#This Row],[SUM1]]*Table1_560[[#This Row],[SUM2]]+C$6-D$6</f>
+        <f>Table1_558[[#This Row],[SUM1]]*Table1_558[[#This Row],[SUM2]]+C$6-D$6</f>
       </c>
       <c r="I6" s="11"/>
     </row>
@@ -2614,7 +2483,7 @@
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11" t="e">
-        <f>Table1_560[[#This Row],[SUM1]]*Table1_560[[#This Row],[SUM2]]+C$7-D$7</f>
+        <f>Table1_558[[#This Row],[SUM1]]*Table1_558[[#This Row],[SUM2]]+C$7-D$7</f>
       </c>
       <c r="I7" s="11"/>
     </row>
@@ -2636,7 +2505,7 @@
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11" t="e">
-        <f>Table1_560[[#This Row],[SUM1]]*Table1_560[[#This Row],[SUM2]]+C$8-D$8</f>
+        <f>Table1_558[[#This Row],[SUM1]]*Table1_558[[#This Row],[SUM2]]+C$8-D$8</f>
       </c>
       <c r="I8" s="11"/>
     </row>
@@ -2658,7 +2527,7 @@
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11" t="e">
-        <f>Table1_560[[#This Row],[SUM1]]*Table1_560[[#This Row],[SUM2]]+C$9-D$9</f>
+        <f>Table1_558[[#This Row],[SUM1]]*Table1_558[[#This Row],[SUM2]]+C$9-D$9</f>
       </c>
       <c r="I9" s="11"/>
     </row>
@@ -2680,7 +2549,7 @@
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11" t="e">
-        <f>Table1_560[[#This Row],[SUM1]]*Table1_560[[#This Row],[SUM2]]+C$10-D$10</f>
+        <f>Table1_558[[#This Row],[SUM1]]*Table1_558[[#This Row],[SUM2]]+C$10-D$10</f>
       </c>
       <c r="I10" s="11"/>
     </row>
@@ -2702,7 +2571,7 @@
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11" t="e">
-        <f>Table1_560[[#This Row],[SUM1]]*Table1_560[[#This Row],[SUM2]]+C$11-D$11</f>
+        <f>Table1_558[[#This Row],[SUM1]]*Table1_558[[#This Row],[SUM2]]+C$11-D$11</f>
       </c>
       <c r="I11" s="11"/>
     </row>
@@ -2724,7 +2593,7 @@
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="11" t="e">
-        <f>Table1_560[[#This Row],[SUM1]]*Table1_560[[#This Row],[SUM2]]+C$12-D$12</f>
+        <f>Table1_558[[#This Row],[SUM1]]*Table1_558[[#This Row],[SUM2]]+C$12-D$12</f>
       </c>
       <c r="I12" s="11"/>
     </row>
@@ -2746,7 +2615,7 @@
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11" t="e">
-        <f>Table1_560[[#This Row],[SUM1]]*Table1_560[[#This Row],[SUM2]]+C$13-D$13</f>
+        <f>Table1_558[[#This Row],[SUM1]]*Table1_558[[#This Row],[SUM2]]+C$13-D$13</f>
       </c>
       <c r="I13" s="11"/>
     </row>
@@ -2768,7 +2637,7 @@
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="11" t="e">
-        <f>Table1_560[[#This Row],[SUM1]]*Table1_560[[#This Row],[SUM2]]+C$14-D$14</f>
+        <f>Table1_558[[#This Row],[SUM1]]*Table1_558[[#This Row],[SUM2]]+C$14-D$14</f>
       </c>
       <c r="I14" s="11"/>
     </row>
@@ -2790,7 +2659,7 @@
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="11" t="e">
-        <f>Table1_560[[#This Row],[SUM1]]*Table1_560[[#This Row],[SUM2]]+C$15-D$15</f>
+        <f>Table1_558[[#This Row],[SUM1]]*Table1_558[[#This Row],[SUM2]]+C$15-D$15</f>
       </c>
       <c r="I15" s="11"/>
     </row>
@@ -2812,7 +2681,7 @@
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="11" t="e">
-        <f>Table1_560[[#This Row],[SUM1]]*Table1_560[[#This Row],[SUM2]]+C$16-D$16</f>
+        <f>Table1_558[[#This Row],[SUM1]]*Table1_558[[#This Row],[SUM2]]+C$16-D$16</f>
       </c>
       <c r="I16" s="11"/>
     </row>
@@ -2834,7 +2703,7 @@
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="11" t="e">
-        <f>Table1_560[[#This Row],[SUM1]]*Table1_560[[#This Row],[SUM2]]+C$17-D$17</f>
+        <f>Table1_558[[#This Row],[SUM1]]*Table1_558[[#This Row],[SUM2]]+C$17-D$17</f>
       </c>
       <c r="I17" s="11"/>
     </row>
@@ -2856,7 +2725,7 @@
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="11" t="e">
-        <f>Table1_560[[#This Row],[SUM1]]*Table1_560[[#This Row],[SUM2]]+C$18-D$18</f>
+        <f>Table1_558[[#This Row],[SUM1]]*Table1_558[[#This Row],[SUM2]]+C$18-D$18</f>
       </c>
       <c r="I18" s="11"/>
     </row>
@@ -2865,10 +2734,10 @@
         <v>26</v>
       </c>
       <c r="C19" s="9">
-        <f>SUBTOTAL(109,Table1_560[SUM1])</f>
+        <f>SUBTOTAL(109,Table1_558[SUM1])</f>
       </c>
       <c r="D19" s="10">
-        <f>SUBTOTAL(109,Table1_560[SUM2])</f>
+        <f>SUBTOTAL(109,Table1_558[SUM2])</f>
       </c>
     </row>
     <row r="20" customHeight="1" ht="15">
@@ -2918,27 +2787,4 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet561.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" width="34.28515625"/>
-  </cols>
-  <sheetData>
-    <row r="1" customHeight="1" ht="15">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/xtt_demo/ZXXT_DEMO_030_A_R.XLSX
+++ b/xtt_demo/ZXXT_DEMO_030_A_R.XLSX
@@ -36,48 +36,105 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>&lt;Caption 1 /&gt; GRP A</t>
   </si>
   <si>
+    <t>&lt;Caption 1 /&gt; GRP C</t>
+  </si>
+  <si>
     <t>&lt;Caption 10 /&gt; GRP C</t>
   </si>
   <si>
+    <t>&lt;Caption 10 /&gt; GRP D</t>
+  </si>
+  <si>
+    <t>&lt;Caption 11 /&gt; GRP B</t>
+  </si>
+  <si>
+    <t>&lt;Caption 11 /&gt; GRP C</t>
+  </si>
+  <si>
     <t>&lt;Caption 11 /&gt; GRP D</t>
   </si>
   <si>
-    <t>&lt;Caption 12 /&gt; GRP C</t>
-  </si>
-  <si>
-    <t>&lt;Caption 13 /&gt; GRP C</t>
+    <t>&lt;Caption 12 /&gt; GRP B</t>
+  </si>
+  <si>
+    <t>&lt;Caption 12 /&gt; GRP D</t>
+  </si>
+  <si>
+    <t>&lt;Caption 13 /&gt; GRP B</t>
+  </si>
+  <si>
+    <t>&lt;Caption 13 /&gt; GRP D</t>
+  </si>
+  <si>
+    <t>&lt;Caption 14 /&gt; GRP A</t>
+  </si>
+  <si>
+    <t>&lt;Caption 14 /&gt; GRP B</t>
   </si>
   <si>
     <t>&lt;Caption 14 /&gt; GRP D</t>
   </si>
   <si>
+    <t>&lt;Caption 15 /&gt; GRP B</t>
+  </si>
+  <si>
     <t>&lt;Caption 15 /&gt; GRP D</t>
   </si>
   <si>
     <t>&lt;Caption 2 /&gt; GRP C</t>
   </si>
   <si>
+    <t>&lt;Caption 2 /&gt; GRP D</t>
+  </si>
+  <si>
+    <t>&lt;Caption 3 /&gt; GRP A</t>
+  </si>
+  <si>
     <t>&lt;Caption 3 /&gt; GRP B</t>
   </si>
   <si>
-    <t>&lt;Caption 4 /&gt; GRP A</t>
-  </si>
-  <si>
-    <t>&lt;Caption 5 /&gt; GRP A</t>
-  </si>
-  <si>
-    <t>&lt;Caption 6 /&gt; GRP C</t>
-  </si>
-  <si>
-    <t>&lt;Caption 7 /&gt; GRP B</t>
+    <t>&lt;Caption 3 /&gt; GRP C</t>
+  </si>
+  <si>
+    <t>&lt;Caption 4 /&gt; GRP B</t>
+  </si>
+  <si>
+    <t>&lt;Caption 4 /&gt; GRP D</t>
+  </si>
+  <si>
+    <t>&lt;Caption 5 /&gt; GRP B</t>
+  </si>
+  <si>
+    <t>&lt;Caption 5 /&gt; GRP C</t>
+  </si>
+  <si>
+    <t>&lt;Caption 5 /&gt; GRP D</t>
+  </si>
+  <si>
+    <t>&lt;Caption 6 /&gt; GRP D</t>
+  </si>
+  <si>
+    <t>&lt;Caption 7 /&gt; GRP C</t>
+  </si>
+  <si>
+    <t>&lt;Caption 7 /&gt; GRP D</t>
   </si>
   <si>
     <t>&lt;Caption 8 /&gt; GRP A</t>
+  </si>
+  <si>
+    <t>&lt;Caption 8 /&gt; GRP C</t>
+  </si>
+  <si>
+    <t>&lt;Caption 8 /&gt; GRP D</t>
+  </si>
+  <si>
+    <t>&lt;Caption 9 /&gt; GRP B</t>
   </si>
   <si>
     <t>&lt;Caption 9 /&gt; GRP D</t>
@@ -1054,6 +1111,171 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5561.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>124044</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>68423</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11306175" y="9525"/>
+          <a:ext cx="1324194" cy="449423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5571.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>124044</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>68423</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11306175" y="9525"/>
+          <a:ext cx="1324194" cy="449423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5581.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>124044</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>68423</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11306175" y="9525"/>
+          <a:ext cx="1324194" cy="449423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B3:D5" totalsRowCount="1" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6">
   <autoFilter ref="B3:D4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
@@ -1378,7 +1600,7 @@
   <sheetData>
     <row r="1" customHeight="1" ht="15">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1403,43 +1625,43 @@
   <sheetData>
     <row r="1" customHeight="1" ht="15">
       <c r="B1" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="G1" s="11"/>
       <c r="H1" s="11" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I1" s="11"/>
     </row>
     <row r="3" customHeight="1" ht="15.75">
       <c r="B3" s="6" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" customHeight="1" ht="15.75">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11" t="e">
@@ -1449,7 +1671,7 @@
     </row>
     <row r="5" customHeight="1" ht="15">
       <c r="B5" s="8" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C5" s="9">
         <f>SUBTOTAL(109,Table1[SUM1])</f>
@@ -1494,7 +1716,7 @@
   <sheetData>
     <row r="1" customHeight="1" ht="15">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1519,26 +1741,26 @@
   <sheetData>
     <row r="1" customHeight="1" ht="15">
       <c r="B1" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="G1" s="11"/>
       <c r="H1" s="11" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I1" s="11"/>
     </row>
     <row r="3" customHeight="1" ht="15.75">
       <c r="B3" s="6" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" customHeight="1" ht="15.75">
@@ -1546,16 +1768,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="3">
-        <v>5971.44</v>
+        <v>6944.37</v>
       </c>
       <c r="D4" s="5">
-        <v>5021.46</v>
+        <v>7004.29</v>
       </c>
       <c r="F4" s="11">
-        <v>29986297.08240</v>
+        <v>48640321.42730</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11" t="e">
@@ -1568,16 +1790,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="3">
-        <v>5451.87</v>
+        <v>8940.97</v>
       </c>
       <c r="D5" s="5">
-        <v>4061.85</v>
+        <v>2784.70</v>
       </c>
       <c r="F5" s="11">
-        <v>22146068.17950</v>
+        <v>24904075.42900</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11" t="e">
@@ -1590,16 +1812,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3">
-        <v>4573.55</v>
+        <v>4001.42</v>
       </c>
       <c r="D6" s="5">
-        <v>5436.00</v>
+        <v>3381.97</v>
       </c>
       <c r="F6" s="11">
-        <v>24860955.35000</v>
+        <v>13533301.84740</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11" t="e">
@@ -1612,16 +1834,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C7" s="3">
-        <v>1196.35</v>
+        <v>5777.64</v>
       </c>
       <c r="D7" s="5">
-        <v>522.46</v>
+        <v>3669.37</v>
       </c>
       <c r="F7" s="11">
-        <v>625718.91100</v>
+        <v>21202407.15680</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11" t="e">
@@ -1634,16 +1856,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C8" s="3">
-        <v>7686.95</v>
+        <v>1443.81</v>
       </c>
       <c r="D8" s="5">
-        <v>2727.98</v>
+        <v>9836.61</v>
       </c>
       <c r="F8" s="11">
-        <v>20974804.83100</v>
+        <v>14193803.08410</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11" t="e">
@@ -1656,16 +1878,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C9" s="3">
-        <v>978.18</v>
+        <v>5807.86</v>
       </c>
       <c r="D9" s="5">
-        <v>295.55</v>
+        <v>1677.70</v>
       </c>
       <c r="F9" s="11">
-        <v>289783.72900</v>
+        <v>9747976.88200</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11" t="e">
@@ -1678,16 +1900,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C10" s="3">
-        <v>71.12</v>
+        <v>472.85</v>
       </c>
       <c r="D10" s="5">
-        <v>8878.56</v>
+        <v>3216.21</v>
       </c>
       <c r="F10" s="11">
-        <v>622635.74720</v>
+        <v>1518041.53850</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11" t="e">
@@ -1700,16 +1922,16 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C11" s="3">
-        <v>2276.75</v>
+        <v>2285.48</v>
       </c>
       <c r="D11" s="5">
-        <v>7717.20</v>
+        <v>8861.78</v>
       </c>
       <c r="F11" s="11">
-        <v>17564694.65000</v>
+        <v>20246844.65440</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11" t="e">
@@ -1722,16 +1944,16 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C12" s="3">
-        <v>3031.38</v>
+        <v>413.29</v>
       </c>
       <c r="D12" s="5">
-        <v>445.22</v>
+        <v>366.88</v>
       </c>
       <c r="F12" s="11">
-        <v>1352217.16360</v>
+        <v>151674.24520</v>
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="11" t="e">
@@ -1744,16 +1966,16 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3">
-        <v>9476.79</v>
+        <v>6780.05</v>
       </c>
       <c r="D13" s="5">
-        <v>3683.27</v>
+        <v>3008.77</v>
       </c>
       <c r="F13" s="11">
-        <v>34911369.82330</v>
+        <v>20403382.31850</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11" t="e">
@@ -1766,16 +1988,16 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C14" s="3">
-        <v>4604.00</v>
+        <v>9210.05</v>
       </c>
       <c r="D14" s="5">
-        <v>5525.85</v>
+        <v>7462.60</v>
       </c>
       <c r="F14" s="11">
-        <v>25440091.55000</v>
+        <v>68732666.58000</v>
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="11" t="e">
@@ -1788,16 +2010,16 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C15" s="3">
-        <v>2159.71</v>
+        <v>738.13</v>
       </c>
       <c r="D15" s="5">
-        <v>2260.94</v>
+        <v>7626.24</v>
       </c>
       <c r="F15" s="11">
-        <v>4882873.49740</v>
+        <v>5622268.42120</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="11" t="e">
@@ -1810,16 +2032,16 @@
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C16" s="3">
-        <v>2490.30</v>
+        <v>7122.91</v>
       </c>
       <c r="D16" s="5">
-        <v>6388.81</v>
+        <v>473.46</v>
       </c>
       <c r="F16" s="11">
-        <v>15906155.03300</v>
+        <v>3379062.41860</v>
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="11" t="e">
@@ -1832,16 +2054,16 @@
         <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C17" s="3">
-        <v>5476.81</v>
+        <v>4690.39</v>
       </c>
       <c r="D17" s="5">
-        <v>406.18</v>
+        <v>845.09</v>
       </c>
       <c r="F17" s="11">
-        <v>2229641.31580</v>
+        <v>3967646.98510</v>
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="11" t="e">
@@ -1854,16 +2076,16 @@
         <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C18" s="3">
-        <v>689.66</v>
+        <v>9622.89</v>
       </c>
       <c r="D18" s="5">
-        <v>518.60</v>
+        <v>2284.72</v>
       </c>
       <c r="F18" s="11">
-        <v>357828.73600</v>
+        <v>21992947.41080</v>
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="11" t="e">
@@ -1873,7 +2095,7 @@
     </row>
     <row r="19" customHeight="1" ht="15">
       <c r="B19" s="8" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C19" s="9">
         <f>SUBTOTAL(109,Table1_556[SUM1])</f>
@@ -1948,26 +2170,26 @@
   <sheetData>
     <row r="1" customHeight="1" ht="15">
       <c r="B1" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="G1" s="11"/>
       <c r="H1" s="11" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I1" s="11"/>
     </row>
     <row r="3" customHeight="1" ht="15.75">
       <c r="B3" s="6" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" customHeight="1" ht="15.75">
@@ -1978,13 +2200,13 @@
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>5971.44</v>
+        <v>3633.78</v>
       </c>
       <c r="D4" s="5">
-        <v>5021.46</v>
+        <v>9057.84</v>
       </c>
       <c r="F4" s="11">
-        <v>29986297.08240</v>
+        <v>32908773.77520</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11" t="e">
@@ -1997,16 +2219,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" s="3">
-        <v>9476.79</v>
+        <v>2042.15</v>
       </c>
       <c r="D5" s="5">
-        <v>3683.27</v>
+        <v>1666.11</v>
       </c>
       <c r="F5" s="11">
-        <v>34911369.82330</v>
+        <v>3402822.57650</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11" t="e">
@@ -2019,16 +2241,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C6" s="3">
-        <v>4604.00</v>
+        <v>7625.29</v>
       </c>
       <c r="D6" s="5">
-        <v>5525.85</v>
+        <v>8881.81</v>
       </c>
       <c r="F6" s="11">
-        <v>25440091.55000</v>
+        <v>67725120.45490</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11" t="e">
@@ -2041,16 +2263,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3">
-        <v>5476.81</v>
+        <v>9598.85</v>
       </c>
       <c r="D7" s="5">
-        <v>406.18</v>
+        <v>9660.25</v>
       </c>
       <c r="F7" s="11">
-        <v>2229641.31580</v>
+        <v>92727229.31250</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11" t="e">
@@ -2063,16 +2285,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C8" s="3">
-        <v>3031.38</v>
+        <v>348.49</v>
       </c>
       <c r="D8" s="5">
-        <v>445.22</v>
+        <v>7671.10</v>
       </c>
       <c r="F8" s="11">
-        <v>1352217.16360</v>
+        <v>2665979.02900</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11" t="e">
@@ -2085,16 +2307,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="C9" s="3">
-        <v>2490.30</v>
+        <v>4686.88</v>
       </c>
       <c r="D9" s="5">
-        <v>6388.81</v>
+        <v>1095.09</v>
       </c>
       <c r="F9" s="11">
-        <v>15906155.03300</v>
+        <v>5136147.20920</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11" t="e">
@@ -2107,16 +2329,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C10" s="3">
-        <v>2276.75</v>
+        <v>4210.30</v>
       </c>
       <c r="D10" s="5">
-        <v>7717.20</v>
+        <v>5175.02</v>
       </c>
       <c r="F10" s="11">
-        <v>17564694.65000</v>
+        <v>21787421.98600</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11" t="e">
@@ -2129,16 +2351,16 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C11" s="3">
-        <v>2159.71</v>
+        <v>3899.07</v>
       </c>
       <c r="D11" s="5">
-        <v>2260.94</v>
+        <v>61.55</v>
       </c>
       <c r="F11" s="11">
-        <v>4882873.49740</v>
+        <v>243825.27850</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11" t="e">
@@ -2151,16 +2373,16 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C12" s="3">
-        <v>5451.87</v>
+        <v>9812.22</v>
       </c>
       <c r="D12" s="5">
-        <v>4061.85</v>
+        <v>2988.74</v>
       </c>
       <c r="F12" s="11">
-        <v>22146068.17950</v>
+        <v>29332997.88280</v>
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="11" t="e">
@@ -2173,16 +2395,16 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" s="3">
-        <v>1196.35</v>
+        <v>2577.97</v>
       </c>
       <c r="D13" s="5">
-        <v>522.46</v>
+        <v>1432.20</v>
       </c>
       <c r="F13" s="11">
-        <v>625718.91100</v>
+        <v>3693314.40400</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11" t="e">
@@ -2195,16 +2417,16 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C14" s="3">
-        <v>7686.95</v>
+        <v>9727.62</v>
       </c>
       <c r="D14" s="5">
-        <v>2727.98</v>
+        <v>3520.31</v>
       </c>
       <c r="F14" s="11">
-        <v>20974804.83100</v>
+        <v>34250445.27220</v>
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="11" t="e">
@@ -2217,16 +2439,16 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C15" s="3">
-        <v>689.66</v>
+        <v>5648.39</v>
       </c>
       <c r="D15" s="5">
-        <v>518.60</v>
+        <v>7362.56</v>
       </c>
       <c r="F15" s="11">
-        <v>357828.73600</v>
+        <v>41584896.10840</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="11" t="e">
@@ -2239,16 +2461,16 @@
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="C16" s="3">
-        <v>4573.55</v>
+        <v>8398.58</v>
       </c>
       <c r="D16" s="5">
-        <v>5436.00</v>
+        <v>8331.94</v>
       </c>
       <c r="F16" s="11">
-        <v>24860955.35000</v>
+        <v>69976531.28520</v>
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="11" t="e">
@@ -2261,16 +2483,16 @@
         <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C17" s="3">
-        <v>978.18</v>
+        <v>7983.44</v>
       </c>
       <c r="D17" s="5">
-        <v>295.55</v>
+        <v>7893.45</v>
       </c>
       <c r="F17" s="11">
-        <v>289783.72900</v>
+        <v>63016974.45800</v>
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="11" t="e">
@@ -2283,16 +2505,16 @@
         <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C18" s="3">
-        <v>71.12</v>
+        <v>984.63</v>
       </c>
       <c r="D18" s="5">
-        <v>8878.56</v>
+        <v>4030.46</v>
       </c>
       <c r="F18" s="11">
-        <v>622635.74720</v>
+        <v>3965465.99980</v>
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="11" t="e">
@@ -2302,7 +2524,7 @@
     </row>
     <row r="19" customHeight="1" ht="15">
       <c r="B19" s="8" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C19" s="9">
         <f>SUBTOTAL(109,Table1_557[SUM1])</f>
@@ -2377,26 +2599,26 @@
   <sheetData>
     <row r="1" customHeight="1" ht="15">
       <c r="B1" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="G1" s="11"/>
       <c r="H1" s="11" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="I1" s="11"/>
     </row>
     <row r="3" customHeight="1" ht="15.75">
       <c r="B3" s="6" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" customHeight="1" ht="15.75">
@@ -2404,16 +2626,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C4" s="3">
-        <v>71.12</v>
+        <v>35.49</v>
       </c>
       <c r="D4" s="5">
-        <v>8878.56</v>
+        <v>4030.86</v>
       </c>
       <c r="F4" s="11">
-        <v>622635.74720</v>
+        <v>139059.85140</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11" t="e">
@@ -2426,16 +2648,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C5" s="3">
-        <v>689.66</v>
+        <v>1341.45</v>
       </c>
       <c r="D5" s="5">
-        <v>518.60</v>
+        <v>2623.05</v>
       </c>
       <c r="F5" s="11">
-        <v>357828.73600</v>
+        <v>3517408.82250</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11" t="e">
@@ -2448,16 +2670,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3">
-        <v>978.18</v>
+        <v>1394.64</v>
       </c>
       <c r="D6" s="5">
-        <v>295.55</v>
+        <v>4013.49</v>
       </c>
       <c r="F6" s="11">
-        <v>289783.72900</v>
+        <v>5594754.84360</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11" t="e">
@@ -2470,16 +2692,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3">
-        <v>1196.35</v>
+        <v>1858.78</v>
       </c>
       <c r="D7" s="5">
-        <v>522.46</v>
+        <v>3109.70</v>
       </c>
       <c r="F7" s="11">
-        <v>625718.91100</v>
+        <v>5778997.24600</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11" t="e">
@@ -2492,16 +2714,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C8" s="3">
-        <v>2159.71</v>
+        <v>2508.08</v>
       </c>
       <c r="D8" s="5">
-        <v>2260.94</v>
+        <v>8984.70</v>
       </c>
       <c r="F8" s="11">
-        <v>4882873.49740</v>
+        <v>22527869.75600</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11" t="e">
@@ -2514,16 +2736,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C9" s="3">
-        <v>2276.75</v>
+        <v>2924.84</v>
       </c>
       <c r="D9" s="5">
-        <v>7717.20</v>
+        <v>2170.27</v>
       </c>
       <c r="F9" s="11">
-        <v>17564694.65000</v>
+        <v>6348447.07680</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11" t="e">
@@ -2536,16 +2758,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C10" s="3">
-        <v>2490.30</v>
+        <v>2929.12</v>
       </c>
       <c r="D10" s="5">
-        <v>6388.81</v>
+        <v>7000.58</v>
       </c>
       <c r="F10" s="11">
-        <v>15906155.03300</v>
+        <v>20501467.42960</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11" t="e">
@@ -2558,16 +2780,16 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C11" s="3">
-        <v>3031.38</v>
+        <v>3947.41</v>
       </c>
       <c r="D11" s="5">
-        <v>445.22</v>
+        <v>4178.16</v>
       </c>
       <c r="F11" s="11">
-        <v>1352217.16360</v>
+        <v>16492679.81560</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11" t="e">
@@ -2580,16 +2802,16 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C12" s="3">
-        <v>4573.55</v>
+        <v>4774.97</v>
       </c>
       <c r="D12" s="5">
-        <v>5436.00</v>
+        <v>1010.15</v>
       </c>
       <c r="F12" s="11">
-        <v>24860955.35000</v>
+        <v>4827200.76550</v>
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="11" t="e">
@@ -2602,16 +2824,16 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C13" s="3">
-        <v>4604.00</v>
+        <v>5052.44</v>
       </c>
       <c r="D13" s="5">
-        <v>5525.85</v>
+        <v>174.78</v>
       </c>
       <c r="F13" s="11">
-        <v>25440091.55000</v>
+        <v>887943.12320</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11" t="e">
@@ -2624,16 +2846,16 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="C14" s="3">
-        <v>5451.87</v>
+        <v>6202.85</v>
       </c>
       <c r="D14" s="5">
-        <v>4061.85</v>
+        <v>1827.85</v>
       </c>
       <c r="F14" s="11">
-        <v>22146068.17950</v>
+        <v>11342254.37250</v>
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="11" t="e">
@@ -2646,16 +2868,16 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C15" s="3">
-        <v>5476.81</v>
+        <v>6397.64</v>
       </c>
       <c r="D15" s="5">
-        <v>406.18</v>
+        <v>698.56</v>
       </c>
       <c r="F15" s="11">
-        <v>2229641.31580</v>
+        <v>4474834.47840</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="11" t="e">
@@ -2668,16 +2890,16 @@
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="C16" s="3">
-        <v>5971.44</v>
+        <v>6738.78</v>
       </c>
       <c r="D16" s="5">
-        <v>5021.46</v>
+        <v>7514.94</v>
       </c>
       <c r="F16" s="11">
-        <v>29986297.08240</v>
+        <v>50640751.21320</v>
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="11" t="e">
@@ -2690,16 +2912,16 @@
         <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C17" s="3">
-        <v>7686.95</v>
+        <v>8948.43</v>
       </c>
       <c r="D17" s="5">
-        <v>2727.98</v>
+        <v>1974.84</v>
       </c>
       <c r="F17" s="11">
-        <v>20974804.83100</v>
+        <v>17678691.09120</v>
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="11" t="e">
@@ -2712,16 +2934,16 @@
         <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C18" s="3">
-        <v>9476.79</v>
+        <v>9666.28</v>
       </c>
       <c r="D18" s="5">
-        <v>3683.27</v>
+        <v>5351.73</v>
       </c>
       <c r="F18" s="11">
-        <v>34911369.82330</v>
+        <v>51735635.21440</v>
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="11" t="e">
@@ -2731,7 +2953,7 @@
     </row>
     <row r="19" customHeight="1" ht="15">
       <c r="B19" s="8" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C19" s="9">
         <f>SUBTOTAL(109,Table1_558[SUM1])</f>

--- a/xtt_demo/ZXXT_DEMO_030_A_R.XLSX
+++ b/xtt_demo/ZXXT_DEMO_030_A_R.XLSX
@@ -36,105 +36,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>&lt;Caption 1 /&gt; GRP A</t>
   </si>
   <si>
-    <t>&lt;Caption 1 /&gt; GRP C</t>
-  </si>
-  <si>
     <t>&lt;Caption 10 /&gt; GRP C</t>
   </si>
   <si>
-    <t>&lt;Caption 10 /&gt; GRP D</t>
-  </si>
-  <si>
-    <t>&lt;Caption 11 /&gt; GRP B</t>
-  </si>
-  <si>
-    <t>&lt;Caption 11 /&gt; GRP C</t>
-  </si>
-  <si>
     <t>&lt;Caption 11 /&gt; GRP D</t>
   </si>
   <si>
-    <t>&lt;Caption 12 /&gt; GRP B</t>
-  </si>
-  <si>
-    <t>&lt;Caption 12 /&gt; GRP D</t>
-  </si>
-  <si>
-    <t>&lt;Caption 13 /&gt; GRP B</t>
-  </si>
-  <si>
-    <t>&lt;Caption 13 /&gt; GRP D</t>
-  </si>
-  <si>
-    <t>&lt;Caption 14 /&gt; GRP A</t>
-  </si>
-  <si>
-    <t>&lt;Caption 14 /&gt; GRP B</t>
+    <t>&lt;Caption 12 /&gt; GRP C</t>
+  </si>
+  <si>
+    <t>&lt;Caption 13 /&gt; GRP C</t>
   </si>
   <si>
     <t>&lt;Caption 14 /&gt; GRP D</t>
   </si>
   <si>
-    <t>&lt;Caption 15 /&gt; GRP B</t>
-  </si>
-  <si>
     <t>&lt;Caption 15 /&gt; GRP D</t>
   </si>
   <si>
     <t>&lt;Caption 2 /&gt; GRP C</t>
   </si>
   <si>
-    <t>&lt;Caption 2 /&gt; GRP D</t>
-  </si>
-  <si>
-    <t>&lt;Caption 3 /&gt; GRP A</t>
-  </si>
-  <si>
     <t>&lt;Caption 3 /&gt; GRP B</t>
   </si>
   <si>
-    <t>&lt;Caption 3 /&gt; GRP C</t>
-  </si>
-  <si>
-    <t>&lt;Caption 4 /&gt; GRP B</t>
-  </si>
-  <si>
-    <t>&lt;Caption 4 /&gt; GRP D</t>
-  </si>
-  <si>
-    <t>&lt;Caption 5 /&gt; GRP B</t>
-  </si>
-  <si>
-    <t>&lt;Caption 5 /&gt; GRP C</t>
-  </si>
-  <si>
-    <t>&lt;Caption 5 /&gt; GRP D</t>
-  </si>
-  <si>
-    <t>&lt;Caption 6 /&gt; GRP D</t>
-  </si>
-  <si>
-    <t>&lt;Caption 7 /&gt; GRP C</t>
-  </si>
-  <si>
-    <t>&lt;Caption 7 /&gt; GRP D</t>
+    <t>&lt;Caption 4 /&gt; GRP A</t>
+  </si>
+  <si>
+    <t>&lt;Caption 5 /&gt; GRP A</t>
+  </si>
+  <si>
+    <t>&lt;Caption 6 /&gt; GRP C</t>
+  </si>
+  <si>
+    <t>&lt;Caption 7 /&gt; GRP B</t>
   </si>
   <si>
     <t>&lt;Caption 8 /&gt; GRP A</t>
-  </si>
-  <si>
-    <t>&lt;Caption 8 /&gt; GRP C</t>
-  </si>
-  <si>
-    <t>&lt;Caption 8 /&gt; GRP D</t>
-  </si>
-  <si>
-    <t>&lt;Caption 9 /&gt; GRP B</t>
   </si>
   <si>
     <t>&lt;Caption 9 /&gt; GRP D</t>
@@ -1600,7 +1543,7 @@
   <sheetData>
     <row r="1" customHeight="1" ht="15">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1625,43 +1568,43 @@
   <sheetData>
     <row r="1" customHeight="1" ht="15">
       <c r="B1" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="G1" s="11"/>
       <c r="H1" s="11" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I1" s="11"/>
     </row>
     <row r="3" customHeight="1" ht="15.75">
       <c r="B3" s="6" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" customHeight="1" ht="15.75">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11" t="e">
@@ -1671,7 +1614,7 @@
     </row>
     <row r="5" customHeight="1" ht="15">
       <c r="B5" s="8" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C5" s="9">
         <f>SUBTOTAL(109,Table1[SUM1])</f>
@@ -1716,7 +1659,7 @@
   <sheetData>
     <row r="1" customHeight="1" ht="15">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1741,26 +1684,26 @@
   <sheetData>
     <row r="1" customHeight="1" ht="15">
       <c r="B1" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="G1" s="11"/>
       <c r="H1" s="11" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I1" s="11"/>
     </row>
     <row r="3" customHeight="1" ht="15.75">
       <c r="B3" s="6" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" customHeight="1" ht="15.75">
@@ -1768,16 +1711,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>6944.37</v>
+        <v>5971.44</v>
       </c>
       <c r="D4" s="5">
-        <v>7004.29</v>
+        <v>5021.46</v>
       </c>
       <c r="F4" s="11">
-        <v>48640321.42730</v>
+        <v>29986297.08240</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11" t="e">
@@ -1790,16 +1733,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>8940.97</v>
+        <v>5451.87</v>
       </c>
       <c r="D5" s="5">
-        <v>2784.70</v>
+        <v>4061.85</v>
       </c>
       <c r="F5" s="11">
-        <v>24904075.42900</v>
+        <v>22146068.17950</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11" t="e">
@@ -1812,16 +1755,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C6" s="3">
-        <v>4001.42</v>
+        <v>4573.55</v>
       </c>
       <c r="D6" s="5">
-        <v>3381.97</v>
+        <v>5436.00</v>
       </c>
       <c r="F6" s="11">
-        <v>13533301.84740</v>
+        <v>24860955.35000</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11" t="e">
@@ -1834,16 +1777,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C7" s="3">
-        <v>5777.64</v>
+        <v>1196.35</v>
       </c>
       <c r="D7" s="5">
-        <v>3669.37</v>
+        <v>522.46</v>
       </c>
       <c r="F7" s="11">
-        <v>21202407.15680</v>
+        <v>625718.91100</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11" t="e">
@@ -1856,16 +1799,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C8" s="3">
-        <v>1443.81</v>
+        <v>7686.95</v>
       </c>
       <c r="D8" s="5">
-        <v>9836.61</v>
+        <v>2727.98</v>
       </c>
       <c r="F8" s="11">
-        <v>14193803.08410</v>
+        <v>20974804.83100</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11" t="e">
@@ -1878,16 +1821,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C9" s="3">
-        <v>5807.86</v>
+        <v>978.18</v>
       </c>
       <c r="D9" s="5">
-        <v>1677.70</v>
+        <v>295.55</v>
       </c>
       <c r="F9" s="11">
-        <v>9747976.88200</v>
+        <v>289783.72900</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11" t="e">
@@ -1900,16 +1843,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C10" s="3">
-        <v>472.85</v>
+        <v>71.12</v>
       </c>
       <c r="D10" s="5">
-        <v>3216.21</v>
+        <v>8878.56</v>
       </c>
       <c r="F10" s="11">
-        <v>1518041.53850</v>
+        <v>622635.74720</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11" t="e">
@@ -1922,16 +1865,16 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C11" s="3">
-        <v>2285.48</v>
+        <v>2276.75</v>
       </c>
       <c r="D11" s="5">
-        <v>8861.78</v>
+        <v>7717.20</v>
       </c>
       <c r="F11" s="11">
-        <v>20246844.65440</v>
+        <v>17564694.65000</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11" t="e">
@@ -1944,16 +1887,16 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C12" s="3">
-        <v>413.29</v>
+        <v>3031.38</v>
       </c>
       <c r="D12" s="5">
-        <v>366.88</v>
+        <v>445.22</v>
       </c>
       <c r="F12" s="11">
-        <v>151674.24520</v>
+        <v>1352217.16360</v>
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="11" t="e">
@@ -1966,16 +1909,16 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C13" s="3">
-        <v>6780.05</v>
+        <v>9476.79</v>
       </c>
       <c r="D13" s="5">
-        <v>3008.77</v>
+        <v>3683.27</v>
       </c>
       <c r="F13" s="11">
-        <v>20403382.31850</v>
+        <v>34911369.82330</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11" t="e">
@@ -1988,16 +1931,16 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C14" s="3">
-        <v>9210.05</v>
+        <v>4604.00</v>
       </c>
       <c r="D14" s="5">
-        <v>7462.60</v>
+        <v>5525.85</v>
       </c>
       <c r="F14" s="11">
-        <v>68732666.58000</v>
+        <v>25440091.55000</v>
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="11" t="e">
@@ -2010,16 +1953,16 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C15" s="3">
-        <v>738.13</v>
+        <v>2159.71</v>
       </c>
       <c r="D15" s="5">
-        <v>7626.24</v>
+        <v>2260.94</v>
       </c>
       <c r="F15" s="11">
-        <v>5622268.42120</v>
+        <v>4882873.49740</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="11" t="e">
@@ -2032,16 +1975,16 @@
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C16" s="3">
-        <v>7122.91</v>
+        <v>2490.30</v>
       </c>
       <c r="D16" s="5">
-        <v>473.46</v>
+        <v>6388.81</v>
       </c>
       <c r="F16" s="11">
-        <v>3379062.41860</v>
+        <v>15906155.03300</v>
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="11" t="e">
@@ -2054,16 +1997,16 @@
         <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C17" s="3">
-        <v>4690.39</v>
+        <v>5476.81</v>
       </c>
       <c r="D17" s="5">
-        <v>845.09</v>
+        <v>406.18</v>
       </c>
       <c r="F17" s="11">
-        <v>3967646.98510</v>
+        <v>2229641.31580</v>
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="11" t="e">
@@ -2076,16 +2019,16 @@
         <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C18" s="3">
-        <v>9622.89</v>
+        <v>689.66</v>
       </c>
       <c r="D18" s="5">
-        <v>2284.72</v>
+        <v>518.60</v>
       </c>
       <c r="F18" s="11">
-        <v>21992947.41080</v>
+        <v>357828.73600</v>
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="11" t="e">
@@ -2095,7 +2038,7 @@
     </row>
     <row r="19" customHeight="1" ht="15">
       <c r="B19" s="8" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C19" s="9">
         <f>SUBTOTAL(109,Table1_556[SUM1])</f>
@@ -2170,26 +2113,26 @@
   <sheetData>
     <row r="1" customHeight="1" ht="15">
       <c r="B1" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="G1" s="11"/>
       <c r="H1" s="11" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I1" s="11"/>
     </row>
     <row r="3" customHeight="1" ht="15.75">
       <c r="B3" s="6" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" customHeight="1" ht="15.75">
@@ -2200,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="C4" s="3">
-        <v>3633.78</v>
+        <v>5971.44</v>
       </c>
       <c r="D4" s="5">
-        <v>9057.84</v>
+        <v>5021.46</v>
       </c>
       <c r="F4" s="11">
-        <v>32908773.77520</v>
+        <v>29986297.08240</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11" t="e">
@@ -2219,16 +2162,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3">
-        <v>2042.15</v>
+        <v>9476.79</v>
       </c>
       <c r="D5" s="5">
-        <v>1666.11</v>
+        <v>3683.27</v>
       </c>
       <c r="F5" s="11">
-        <v>3402822.57650</v>
+        <v>34911369.82330</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11" t="e">
@@ -2241,16 +2184,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C6" s="3">
-        <v>7625.29</v>
+        <v>4604.00</v>
       </c>
       <c r="D6" s="5">
-        <v>8881.81</v>
+        <v>5525.85</v>
       </c>
       <c r="F6" s="11">
-        <v>67725120.45490</v>
+        <v>25440091.55000</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11" t="e">
@@ -2263,16 +2206,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3">
-        <v>9598.85</v>
+        <v>5476.81</v>
       </c>
       <c r="D7" s="5">
-        <v>9660.25</v>
+        <v>406.18</v>
       </c>
       <c r="F7" s="11">
-        <v>92727229.31250</v>
+        <v>2229641.31580</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11" t="e">
@@ -2285,16 +2228,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="C8" s="3">
-        <v>348.49</v>
+        <v>3031.38</v>
       </c>
       <c r="D8" s="5">
-        <v>7671.10</v>
+        <v>445.22</v>
       </c>
       <c r="F8" s="11">
-        <v>2665979.02900</v>
+        <v>1352217.16360</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11" t="e">
@@ -2307,16 +2250,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="C9" s="3">
-        <v>4686.88</v>
+        <v>2490.30</v>
       </c>
       <c r="D9" s="5">
-        <v>1095.09</v>
+        <v>6388.81</v>
       </c>
       <c r="F9" s="11">
-        <v>5136147.20920</v>
+        <v>15906155.03300</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11" t="e">
@@ -2329,16 +2272,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C10" s="3">
-        <v>4210.30</v>
+        <v>2276.75</v>
       </c>
       <c r="D10" s="5">
-        <v>5175.02</v>
+        <v>7717.20</v>
       </c>
       <c r="F10" s="11">
-        <v>21787421.98600</v>
+        <v>17564694.65000</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11" t="e">
@@ -2351,16 +2294,16 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C11" s="3">
-        <v>3899.07</v>
+        <v>2159.71</v>
       </c>
       <c r="D11" s="5">
-        <v>61.55</v>
+        <v>2260.94</v>
       </c>
       <c r="F11" s="11">
-        <v>243825.27850</v>
+        <v>4882873.49740</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11" t="e">
@@ -2373,16 +2316,16 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="C12" s="3">
-        <v>9812.22</v>
+        <v>5451.87</v>
       </c>
       <c r="D12" s="5">
-        <v>2988.74</v>
+        <v>4061.85</v>
       </c>
       <c r="F12" s="11">
-        <v>29332997.88280</v>
+        <v>22146068.17950</v>
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="11" t="e">
@@ -2395,16 +2338,16 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" s="3">
-        <v>2577.97</v>
+        <v>1196.35</v>
       </c>
       <c r="D13" s="5">
-        <v>1432.20</v>
+        <v>522.46</v>
       </c>
       <c r="F13" s="11">
-        <v>3693314.40400</v>
+        <v>625718.91100</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11" t="e">
@@ -2417,16 +2360,16 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C14" s="3">
-        <v>9727.62</v>
+        <v>7686.95</v>
       </c>
       <c r="D14" s="5">
-        <v>3520.31</v>
+        <v>2727.98</v>
       </c>
       <c r="F14" s="11">
-        <v>34250445.27220</v>
+        <v>20974804.83100</v>
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="11" t="e">
@@ -2439,16 +2382,16 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3">
-        <v>5648.39</v>
+        <v>689.66</v>
       </c>
       <c r="D15" s="5">
-        <v>7362.56</v>
+        <v>518.60</v>
       </c>
       <c r="F15" s="11">
-        <v>41584896.10840</v>
+        <v>357828.73600</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="11" t="e">
@@ -2461,16 +2404,16 @@
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="C16" s="3">
-        <v>8398.58</v>
+        <v>4573.55</v>
       </c>
       <c r="D16" s="5">
-        <v>8331.94</v>
+        <v>5436.00</v>
       </c>
       <c r="F16" s="11">
-        <v>69976531.28520</v>
+        <v>24860955.35000</v>
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="11" t="e">
@@ -2483,16 +2426,16 @@
         <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C17" s="3">
-        <v>7983.44</v>
+        <v>978.18</v>
       </c>
       <c r="D17" s="5">
-        <v>7893.45</v>
+        <v>295.55</v>
       </c>
       <c r="F17" s="11">
-        <v>63016974.45800</v>
+        <v>289783.72900</v>
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="11" t="e">
@@ -2505,16 +2448,16 @@
         <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C18" s="3">
-        <v>984.63</v>
+        <v>71.12</v>
       </c>
       <c r="D18" s="5">
-        <v>4030.46</v>
+        <v>8878.56</v>
       </c>
       <c r="F18" s="11">
-        <v>3965465.99980</v>
+        <v>622635.74720</v>
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="11" t="e">
@@ -2524,7 +2467,7 @@
     </row>
     <row r="19" customHeight="1" ht="15">
       <c r="B19" s="8" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C19" s="9">
         <f>SUBTOTAL(109,Table1_557[SUM1])</f>
@@ -2599,26 +2542,26 @@
   <sheetData>
     <row r="1" customHeight="1" ht="15">
       <c r="B1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="G1" s="11"/>
       <c r="H1" s="11" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="I1" s="11"/>
     </row>
     <row r="3" customHeight="1" ht="15.75">
       <c r="B3" s="6" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" customHeight="1" ht="15.75">
@@ -2626,16 +2569,16 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C4" s="3">
-        <v>35.49</v>
+        <v>71.12</v>
       </c>
       <c r="D4" s="5">
-        <v>4030.86</v>
+        <v>8878.56</v>
       </c>
       <c r="F4" s="11">
-        <v>139059.85140</v>
+        <v>622635.74720</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11" t="e">
@@ -2648,16 +2591,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C5" s="3">
-        <v>1341.45</v>
+        <v>689.66</v>
       </c>
       <c r="D5" s="5">
-        <v>2623.05</v>
+        <v>518.60</v>
       </c>
       <c r="F5" s="11">
-        <v>3517408.82250</v>
+        <v>357828.73600</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11" t="e">
@@ -2670,16 +2613,16 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3">
-        <v>1394.64</v>
+        <v>978.18</v>
       </c>
       <c r="D6" s="5">
-        <v>4013.49</v>
+        <v>295.55</v>
       </c>
       <c r="F6" s="11">
-        <v>5594754.84360</v>
+        <v>289783.72900</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="11" t="e">
@@ -2692,16 +2635,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C7" s="3">
-        <v>1858.78</v>
+        <v>1196.35</v>
       </c>
       <c r="D7" s="5">
-        <v>3109.70</v>
+        <v>522.46</v>
       </c>
       <c r="F7" s="11">
-        <v>5778997.24600</v>
+        <v>625718.91100</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="11" t="e">
@@ -2714,16 +2657,16 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C8" s="3">
-        <v>2508.08</v>
+        <v>2159.71</v>
       </c>
       <c r="D8" s="5">
-        <v>8984.70</v>
+        <v>2260.94</v>
       </c>
       <c r="F8" s="11">
-        <v>22527869.75600</v>
+        <v>4882873.49740</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11" t="e">
@@ -2736,16 +2679,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C9" s="3">
-        <v>2924.84</v>
+        <v>2276.75</v>
       </c>
       <c r="D9" s="5">
-        <v>2170.27</v>
+        <v>7717.20</v>
       </c>
       <c r="F9" s="11">
-        <v>6348447.07680</v>
+        <v>17564694.65000</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="11" t="e">
@@ -2758,16 +2701,16 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C10" s="3">
-        <v>2929.12</v>
+        <v>2490.30</v>
       </c>
       <c r="D10" s="5">
-        <v>7000.58</v>
+        <v>6388.81</v>
       </c>
       <c r="F10" s="11">
-        <v>20501467.42960</v>
+        <v>15906155.03300</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11" t="e">
@@ -2780,16 +2723,16 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C11" s="3">
-        <v>3947.41</v>
+        <v>3031.38</v>
       </c>
       <c r="D11" s="5">
-        <v>4178.16</v>
+        <v>445.22</v>
       </c>
       <c r="F11" s="11">
-        <v>16492679.81560</v>
+        <v>1352217.16360</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11" t="e">
@@ -2802,16 +2745,16 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="C12" s="3">
-        <v>4774.97</v>
+        <v>4573.55</v>
       </c>
       <c r="D12" s="5">
-        <v>1010.15</v>
+        <v>5436.00</v>
       </c>
       <c r="F12" s="11">
-        <v>4827200.76550</v>
+        <v>24860955.35000</v>
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="11" t="e">
@@ -2824,16 +2767,16 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C13" s="3">
-        <v>5052.44</v>
+        <v>4604.00</v>
       </c>
       <c r="D13" s="5">
-        <v>174.78</v>
+        <v>5525.85</v>
       </c>
       <c r="F13" s="11">
-        <v>887943.12320</v>
+        <v>25440091.55000</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11" t="e">
@@ -2846,16 +2789,16 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="C14" s="3">
-        <v>6202.85</v>
+        <v>5451.87</v>
       </c>
       <c r="D14" s="5">
-        <v>1827.85</v>
+        <v>4061.85</v>
       </c>
       <c r="F14" s="11">
-        <v>11342254.37250</v>
+        <v>22146068.17950</v>
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="11" t="e">
@@ -2868,16 +2811,16 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C15" s="3">
-        <v>6397.64</v>
+        <v>5476.81</v>
       </c>
       <c r="D15" s="5">
-        <v>698.56</v>
+        <v>406.18</v>
       </c>
       <c r="F15" s="11">
-        <v>4474834.47840</v>
+        <v>2229641.31580</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="11" t="e">
@@ -2890,16 +2833,16 @@
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="C16" s="3">
-        <v>6738.78</v>
+        <v>5971.44</v>
       </c>
       <c r="D16" s="5">
-        <v>7514.94</v>
+        <v>5021.46</v>
       </c>
       <c r="F16" s="11">
-        <v>50640751.21320</v>
+        <v>29986297.08240</v>
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="11" t="e">
@@ -2912,16 +2855,16 @@
         <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C17" s="3">
-        <v>8948.43</v>
+        <v>7686.95</v>
       </c>
       <c r="D17" s="5">
-        <v>1974.84</v>
+        <v>2727.98</v>
       </c>
       <c r="F17" s="11">
-        <v>17678691.09120</v>
+        <v>20974804.83100</v>
       </c>
       <c r="G17" s="11"/>
       <c r="H17" s="11" t="e">
@@ -2934,16 +2877,16 @@
         <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C18" s="3">
-        <v>9666.28</v>
+        <v>9476.79</v>
       </c>
       <c r="D18" s="5">
-        <v>5351.73</v>
+        <v>3683.27</v>
       </c>
       <c r="F18" s="11">
-        <v>51735635.21440</v>
+        <v>34911369.82330</v>
       </c>
       <c r="G18" s="11"/>
       <c r="H18" s="11" t="e">
@@ -2953,7 +2896,7 @@
     </row>
     <row r="19" customHeight="1" ht="15">
       <c r="B19" s="8" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="C19" s="9">
         <f>SUBTOTAL(109,Table1_558[SUM1])</f>

--- a/xtt_demo/ZXXT_DEMO_030_A_R.XLSX
+++ b/xtt_demo/ZXXT_DEMO_030_A_R.XLSX
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\modekz\AppData\Local\SAP\SAP GUI\tmp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moldab\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D492FF1F-33F7-4A40-86ED-3E473657533E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF00FF3-0BA4-432C-9333-11EB6F96BF34}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="9690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="First sheet"/>
@@ -21,22 +21,11 @@
     <sheet r:id="rId3" sheetId="3" name="Last sheet"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>&lt;Caption 1 /&gt; GRP A</t>
   </si>
@@ -81,6 +70,12 @@
   </si>
   <si>
     <t>&lt;Caption 9 /&gt; GRP D</t>
+  </si>
+  <si>
+    <t>1)Create 1st sheet like this</t>
+  </si>
+  <si>
+    <t>2)or call macro like in example 070 to save file with a new name (so the entire file would be recreated)</t>
   </si>
   <si>
     <r>
@@ -120,6 +115,12 @@
     <t>Caption - Group</t>
   </si>
   <si>
+    <t>If you have problems with printing the document:</t>
+  </si>
+  <si>
+    <t>Multi sheet issues with print preview</t>
+  </si>
+  <si>
     <t>SUM1</t>
   </si>
   <si>
@@ -145,6 +146,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>https://docs.microsoft.com/en-us/office/vba/api/excel.workbook.saveas</t>
   </si>
   <si>
     <t>{R-T-CAPTION} {R-T-GROUP}</t>
@@ -166,7 +170,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -333,6 +337,21 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -666,7 +685,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -710,8 +729,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -744,51 +764,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="43"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="43">
-    <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% — акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% — акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% — акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% — акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
+  <cellStyles count="44">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Normal 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Акцент4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Акцент5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Акцент6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ввод " xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Вывод" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Вычисление" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Заголовок 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Заголовок 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Заголовок 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Заголовок 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Итог" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Контрольная ячейка" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Название" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Нейтральный" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Плохой" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Примечание" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Связанная ячейка" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Текст предупреждения" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Хороший" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="9">
     <dxf>
@@ -1530,10 +1553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1543,11 +1566,40 @@
   <sheetData>
     <row r="1" customHeight="1" ht="15">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" ht="15">
+      <c r="A7" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" ht="15">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" ht="15">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" ht="15">
+      <c r="A10" t="s">
         <v>16</v>
       </c>
     </row>
+    <row r="11" customHeight="1" ht="15">
+      <c r="A11" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A11" r:id="rId1" xr:uid="{82AC5927-511A-42AF-ACE6-908865E9BB7B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1568,43 +1620,43 @@
   <sheetData>
     <row r="1" customHeight="1" ht="15">
       <c r="B1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G1" s="11"/>
       <c r="H1" s="11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I1" s="11"/>
     </row>
     <row r="3" customHeight="1" ht="15.75">
       <c r="B3" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" customHeight="1" ht="15.75">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11" t="e">
@@ -1614,7 +1666,7 @@
     </row>
     <row r="5" customHeight="1" ht="15">
       <c r="B5" s="8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C5" s="9">
         <f>SUBTOTAL(109,Table1[SUM1])</f>
@@ -1659,7 +1711,7 @@
   <sheetData>
     <row r="1" customHeight="1" ht="15">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1684,26 +1736,26 @@
   <sheetData>
     <row r="1" customHeight="1" ht="15">
       <c r="B1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G1" s="11"/>
       <c r="H1" s="11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I1" s="11"/>
     </row>
     <row r="3" customHeight="1" ht="15.75">
       <c r="B3" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" customHeight="1" ht="15.75">
@@ -2038,7 +2090,7 @@
     </row>
     <row r="19" customHeight="1" ht="15">
       <c r="B19" s="8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C19" s="9">
         <f>SUBTOTAL(109,Table1_556[SUM1])</f>
@@ -2113,26 +2165,26 @@
   <sheetData>
     <row r="1" customHeight="1" ht="15">
       <c r="B1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G1" s="11"/>
       <c r="H1" s="11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I1" s="11"/>
     </row>
     <row r="3" customHeight="1" ht="15.75">
       <c r="B3" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" customHeight="1" ht="15.75">
@@ -2467,7 +2519,7 @@
     </row>
     <row r="19" customHeight="1" ht="15">
       <c r="B19" s="8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C19" s="9">
         <f>SUBTOTAL(109,Table1_557[SUM1])</f>
@@ -2542,26 +2594,26 @@
   <sheetData>
     <row r="1" customHeight="1" ht="15">
       <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>24</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>20</v>
       </c>
       <c r="G1" s="11"/>
       <c r="H1" s="11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I1" s="11"/>
     </row>
     <row r="3" customHeight="1" ht="15.75">
       <c r="B3" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" customHeight="1" ht="15.75">
@@ -2896,7 +2948,7 @@
     </row>
     <row r="19" customHeight="1" ht="15">
       <c r="B19" s="8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C19" s="9">
         <f>SUBTOTAL(109,Table1_558[SUM1])</f>
